--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41579.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41579.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.32</v>
+        <v>4.53</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.05</v>
+        <v>3.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.22</v>
+        <v>5.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.41</v>
+        <v>2.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.46</v>
+        <v>1.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.88</v>
+        <v>2.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>242.85</v>
+        <v>24.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.96</v>
+        <v>4.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.29</v>
+        <v>3.13</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.54</v>
+        <v>2.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41579.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.44</v>
+        <v>3.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.71</v>
+        <v>3.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.82</v>
+        <v>5.48</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.15</v>
+        <v>20.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39</v>
+        <v>3.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.55</v>
+        <v>2.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.85</v>
+        <v>2.69</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.84</v>
+        <v>4.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41579.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.85</v>
+        <v>2.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.03</v>
+        <v>3.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>118.39</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.56</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41579.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AH6" s="4" t="n">
         <v>0.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41579.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.19</v>
+        <v>4.02</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.3</v>
+        <v>3.33</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>50.61</v>
+        <v>5.06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.38</v>
+        <v>2.24</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y7" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>214.11</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>40.43</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Z7" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>45.83</v>
+        <v>4.58</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41579.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.65</v>
+        <v>3.17</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.31</v>
+        <v>2.63</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>45.28</v>
+        <v>4.53</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y8" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>166.96</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Z8" s="4" t="n">
-        <v>22.14</v>
+        <v>2.21</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>41.43</v>
+        <v>4.14</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41579.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>66.16</v>
+        <v>6.62</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41579.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.23</v>
+        <v>4.42</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.71</v>
+        <v>3.67</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>58.75</v>
+        <v>5.88</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.61</v>
+        <v>2.46</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.9</v>
+        <v>2.29</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>235.47</v>
+        <v>23.55</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.5</v>
+        <v>4.45</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.21</v>
+        <v>3.02</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>29.2</v>
+        <v>2.92</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>53.28</v>
+        <v>5.33</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41579.34027777778</v>
+        <v>44828.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41579.34722222222</v>
+        <v>44828.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.28</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.52</v>
+        <v>1.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.86</v>
+        <v>0.36</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.33</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.13</v>
-      </c>
       <c r="X3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.85</v>
+        <v>0.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.32</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.37</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.98</v>
+        <v>0.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41579.35416666666</v>
+        <v>44828.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.84</v>
+        <v>3.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>1.39</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.42</v>
+        <v>19.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.9</v>
+        <v>3.64</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.69</v>
+        <v>2.41</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.98</v>
+        <v>4.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41579.36111111111</v>
+        <v>44828.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.84</v>
+        <v>16.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.33</v>
+        <v>3.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.59</v>
+        <v>2.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.38</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.18</v>
+        <v>4.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41579.36805555555</v>
+        <v>44828.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.02</v>
+        <v>20.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.03</v>
+        <v>15.68</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.05</v>
+        <v>44.8</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>37.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0</v>
+        <v>16.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.68</v>
+        <v>62.38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.03</v>
+        <v>24.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.03</v>
+        <v>11.23</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.01</v>
+        <v>16.92</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0</v>
+        <v>18.08</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0</v>
+        <v>19.03</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.03</v>
+        <v>16.07</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.08</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0</v>
+        <v>13.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0</v>
+        <v>238.61</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.12</v>
+        <v>45.01</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.04</v>
+        <v>14.8</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.12</v>
+        <v>30.48</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.03</v>
+        <v>16.21</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.01</v>
+        <v>2.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.32</v>
+        <v>30.96</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.02</v>
+        <v>12.92</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0</v>
+        <v>11.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.01</v>
+        <v>13.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0</v>
+        <v>19.03</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.73</v>
+        <v>56.35</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.03</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41579.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.41</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41579.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41579.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41579.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41579.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>101.55</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.31</v>
+        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -457,13 +457,13 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,103 +655,103 @@
         <v>44828.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44828.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.07</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44828.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.7</v>
+        <v>16.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.63</v>
+        <v>36.35</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.05</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.63</v>
+        <v>46.27</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.27</v>
+        <v>192.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.64</v>
+        <v>36.4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.46</v>
+        <v>24.58</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.41</v>
+        <v>24.13</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.15</v>
+        <v>41.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44828.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.59</v>
+        <v>45.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.99</v>
+        <v>169.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.4</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.15</v>
+        <v>41.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44828.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.05</v>
+        <v>4.055</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.369</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.515</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.01</v>
+        <v>8.005000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.38</v>
+        <v>7.381</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.781</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.082</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2</v>
+        <v>1.997</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.46</v>
+        <v>3.462</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.622</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.28</v>
+        <v>3.284</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.812</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.15</v>
+        <v>4.148</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.353</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.583</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.07</v>
+        <v>38.073</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.09</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.49</v>
+        <v>2.494</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.278</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.39</v>
+        <v>3.394</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.69</v>
+        <v>6.688</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.831</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.19</v>
+        <v>3.188</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.14</v>
+        <v>2.143</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.66</v>
+        <v>3.662</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.09</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>3.16</v>
@@ -863,103 +863,103 @@
         <v>44828.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.98</v>
+        <v>16.983</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.92</v>
+        <v>12.919</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.35</v>
+        <v>36.347</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.57</v>
+        <v>30.573</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.05</v>
+        <v>13.054</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.27</v>
+        <v>46.269</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20</v>
+        <v>20.004</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.09</v>
+        <v>9.093999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.89</v>
+        <v>13.888</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.81</v>
+        <v>14.807</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.4</v>
+        <v>15.402</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.18</v>
+        <v>4.179</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.01</v>
+        <v>13.013</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.72</v>
+        <v>18.718</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>10.84</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.71</v>
+        <v>192.708</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.4</v>
+        <v>36.399</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.95</v>
+        <v>11.947</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.58</v>
+        <v>24.577</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>13.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.13</v>
+        <v>24.135</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.31</v>
+        <v>10.306</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.83</v>
+        <v>10.831</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.54</v>
+        <v>15.543</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.47</v>
+        <v>41.466</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.12</v>
+        <v>7.119</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.97</v>
+        <v>14.973</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44828.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
@@ -967,103 +967,207 @@
         <v>44828.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.029</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.39</v>
+        <v>11.391</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.677</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.23</v>
+        <v>32.227</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.04</v>
+        <v>27.039</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.95</v>
+        <v>45.947</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.087</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.077</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.68</v>
+        <v>13.679</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.718</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.538</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.63</v>
+        <v>16.633</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.91</v>
+        <v>169.906</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.4</v>
+        <v>32.398</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.604</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.91</v>
+        <v>21.911</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.771</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.97</v>
+        <v>22.972</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.18</v>
+        <v>9.182</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.76</v>
+        <v>13.756</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.52</v>
+        <v>41.515</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.285</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44828.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>62.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.61</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>56.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_147.xlsx
+++ b/DATA_goal/Junction_Flooding_147.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
@@ -967,207 +967,103 @@
         <v>44828.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.029</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.391</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.227</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.039</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.947</v>
+        <v>45.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.779</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.087</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.077</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.679</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.718</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.538</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.633</v>
+        <v>16.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.621</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.906</v>
+        <v>169.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.398</v>
+        <v>32.4</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.604</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.911</v>
+        <v>21.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.771</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.972</v>
+        <v>22.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.182</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.632</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.756</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.515</v>
+        <v>41.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.285</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44828.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
       </c>
     </row>
   </sheetData>
